--- a/data/pca/factorExposure/factorExposure_2018-06-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01980806501777071</v>
+        <v>0.02042479307272459</v>
       </c>
       <c r="C2">
-        <v>0.02316586640183599</v>
+        <v>-0.01922937524418357</v>
       </c>
       <c r="D2">
-        <v>-0.01274590628206253</v>
+        <v>-0.02161178646250017</v>
       </c>
       <c r="E2">
-        <v>-0.01877523253078922</v>
+        <v>-0.01537343571947154</v>
       </c>
       <c r="F2">
-        <v>-0.1126593493788952</v>
+        <v>0.007607093119069388</v>
       </c>
       <c r="G2">
-        <v>-0.06635192516743231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04464761307208316</v>
+      </c>
+      <c r="H2">
+        <v>-0.05382930313946135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09497053191912466</v>
+        <v>0.07602245377236636</v>
       </c>
       <c r="C3">
-        <v>-0.01435995213407668</v>
+        <v>0.01065523519262129</v>
       </c>
       <c r="D3">
-        <v>-0.08503546137761424</v>
+        <v>-0.02772909131384778</v>
       </c>
       <c r="E3">
-        <v>-0.05534517273173081</v>
+        <v>-0.006257967353439577</v>
       </c>
       <c r="F3">
-        <v>-0.3997356549587484</v>
+        <v>-0.0199503625422273</v>
       </c>
       <c r="G3">
-        <v>-0.1637667296938949</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1547903044627191</v>
+      </c>
+      <c r="H3">
+        <v>-0.1673903912066196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03791081774152449</v>
+        <v>0.04292050478349422</v>
       </c>
       <c r="C4">
-        <v>0.01178564324896146</v>
+        <v>-0.006395923298780602</v>
       </c>
       <c r="D4">
-        <v>0.01527992145640522</v>
+        <v>-0.04723831408573258</v>
       </c>
       <c r="E4">
-        <v>0.046607440348407</v>
+        <v>0.02111522830381503</v>
       </c>
       <c r="F4">
-        <v>-0.08187882874467985</v>
+        <v>0.05438582381270875</v>
       </c>
       <c r="G4">
-        <v>-0.05766407163472022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03155715911097275</v>
+      </c>
+      <c r="H4">
+        <v>-0.05752851647323314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02135143619464214</v>
+        <v>0.02486428877734706</v>
       </c>
       <c r="C6">
-        <v>0.01114695415435695</v>
+        <v>-0.004828666860121468</v>
       </c>
       <c r="D6">
-        <v>-0.006785372021125531</v>
+        <v>-0.05281729975131887</v>
       </c>
       <c r="E6">
-        <v>0.01799686761750209</v>
+        <v>0.006947236134157478</v>
       </c>
       <c r="F6">
-        <v>-0.02773449729354287</v>
+        <v>0.03333909093649104</v>
       </c>
       <c r="G6">
-        <v>0.002311375129712764</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.008160116246355339</v>
+      </c>
+      <c r="H6">
+        <v>-0.06502266679723211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0217291832473049</v>
+        <v>0.02018114668476819</v>
       </c>
       <c r="C7">
-        <v>0.003538493515598205</v>
+        <v>-0.003783127219731461</v>
       </c>
       <c r="D7">
-        <v>-0.01586596459646909</v>
+        <v>-0.02681821056429721</v>
       </c>
       <c r="E7">
-        <v>0.0252858773870046</v>
+        <v>0.042436712078731</v>
       </c>
       <c r="F7">
-        <v>-0.05317130837448247</v>
+        <v>0.007327607570950948</v>
       </c>
       <c r="G7">
-        <v>-0.06774090184246406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0185914773045076</v>
+      </c>
+      <c r="H7">
+        <v>-0.03915872247096201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01799559295353333</v>
+        <v>0.005734005465164331</v>
       </c>
       <c r="C8">
-        <v>0.0118822668445081</v>
+        <v>0.001298235670407122</v>
       </c>
       <c r="D8">
-        <v>-0.004655555889464833</v>
+        <v>-0.01033740760281751</v>
       </c>
       <c r="E8">
-        <v>0.03626087236727341</v>
+        <v>0.006971849332703783</v>
       </c>
       <c r="F8">
-        <v>-0.108189739002387</v>
+        <v>0.02054165467499321</v>
       </c>
       <c r="G8">
-        <v>-0.05823051199150342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.03972535643663887</v>
+      </c>
+      <c r="H8">
+        <v>-0.04593687529413661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03169248615242902</v>
+        <v>0.03451389444472232</v>
       </c>
       <c r="C9">
-        <v>0.01457154599492419</v>
+        <v>-0.001908676272802573</v>
       </c>
       <c r="D9">
-        <v>0.006025448108482758</v>
+        <v>-0.03569669606974308</v>
       </c>
       <c r="E9">
-        <v>0.03330536858587856</v>
+        <v>0.01059171185021316</v>
       </c>
       <c r="F9">
-        <v>-0.09498448559327652</v>
+        <v>0.02962498532324326</v>
       </c>
       <c r="G9">
-        <v>-0.05997463808666659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04053035740436162</v>
+      </c>
+      <c r="H9">
+        <v>-0.05797306535295803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03103240192985658</v>
+        <v>0.1065394324257265</v>
       </c>
       <c r="C10">
-        <v>-0.07522179827447398</v>
+        <v>0.02870726027526445</v>
       </c>
       <c r="D10">
-        <v>0.07193927028592474</v>
+        <v>0.1540301561038856</v>
       </c>
       <c r="E10">
-        <v>-0.1129883026950199</v>
+        <v>-0.005300619062095807</v>
       </c>
       <c r="F10">
-        <v>-0.0512266511820028</v>
+        <v>-0.0447702649943407</v>
       </c>
       <c r="G10">
-        <v>0.001788821603328609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02528354724165012</v>
+      </c>
+      <c r="H10">
+        <v>-0.00896648912626047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03263163205148105</v>
+        <v>0.01959295804580285</v>
       </c>
       <c r="C11">
-        <v>0.02221629594975933</v>
+        <v>0.007356522596530028</v>
       </c>
       <c r="D11">
-        <v>-0.01524202513415921</v>
+        <v>-0.03988593449961426</v>
       </c>
       <c r="E11">
-        <v>0.02729765731316516</v>
+        <v>-0.0007241475523840611</v>
       </c>
       <c r="F11">
-        <v>-0.047780079740002</v>
+        <v>0.01232391272652429</v>
       </c>
       <c r="G11">
-        <v>-0.02299869299331578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02055620309246395</v>
+      </c>
+      <c r="H11">
+        <v>-0.04770704614513353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04074166082122689</v>
+        <v>0.02727976163491098</v>
       </c>
       <c r="C12">
-        <v>0.02301973460630325</v>
+        <v>0.005317773895414398</v>
       </c>
       <c r="D12">
-        <v>-0.009686669172943313</v>
+        <v>-0.04112499012150991</v>
       </c>
       <c r="E12">
-        <v>0.03984169695943405</v>
+        <v>0.008337687240039993</v>
       </c>
       <c r="F12">
-        <v>-0.03409114367229048</v>
+        <v>0.01887638202734495</v>
       </c>
       <c r="G12">
-        <v>-0.01068991018060427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.005887385630413326</v>
+      </c>
+      <c r="H12">
+        <v>-0.02253809070545696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01334737624331173</v>
+        <v>0.02501550083619565</v>
       </c>
       <c r="C13">
-        <v>0.02229686962375859</v>
+        <v>-0.01487291304920201</v>
       </c>
       <c r="D13">
-        <v>0.0007416446918664226</v>
+        <v>0.0001705896211843931</v>
       </c>
       <c r="E13">
-        <v>-0.007284300035945222</v>
+        <v>-0.01199077904584438</v>
       </c>
       <c r="F13">
-        <v>-0.0777064204931166</v>
+        <v>0.01529893784017754</v>
       </c>
       <c r="G13">
-        <v>-0.04579822004853566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.04697470287384314</v>
+      </c>
+      <c r="H13">
+        <v>-0.06682524955317397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01514580502987043</v>
+        <v>0.01737206914112893</v>
       </c>
       <c r="C14">
-        <v>0.003916506167882806</v>
+        <v>-0.001069678984038971</v>
       </c>
       <c r="D14">
-        <v>0.003530979994121226</v>
+        <v>-0.00551787902122481</v>
       </c>
       <c r="E14">
-        <v>0.03283279515737745</v>
+        <v>0.01269145554083968</v>
       </c>
       <c r="F14">
-        <v>-0.05990384470457586</v>
+        <v>0.01562087423248495</v>
       </c>
       <c r="G14">
-        <v>-0.07265047724263957</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03891453838834426</v>
+      </c>
+      <c r="H14">
+        <v>-0.01191056349460682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02529742323519471</v>
+        <v>0.02123384703857041</v>
       </c>
       <c r="C16">
-        <v>0.02554301484417746</v>
+        <v>0.007952310950271118</v>
       </c>
       <c r="D16">
-        <v>-0.01269028306083033</v>
+        <v>-0.03500820868464593</v>
       </c>
       <c r="E16">
-        <v>0.0210515110559255</v>
+        <v>0.002660271662344893</v>
       </c>
       <c r="F16">
-        <v>-0.05293683606922438</v>
+        <v>0.01804699503461132</v>
       </c>
       <c r="G16">
-        <v>-0.02481286395224481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01844539435482476</v>
+      </c>
+      <c r="H16">
+        <v>-0.03818746811017896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04670752820231722</v>
+        <v>0.03294123746821973</v>
       </c>
       <c r="C19">
-        <v>0.01868414951131641</v>
+        <v>-0.001309794953464512</v>
       </c>
       <c r="D19">
-        <v>-0.01151211230659538</v>
+        <v>-0.02211622158235485</v>
       </c>
       <c r="E19">
-        <v>0.02981429994997515</v>
+        <v>0.005158675612782077</v>
       </c>
       <c r="F19">
-        <v>-0.1106824656505144</v>
+        <v>0.02393418073902055</v>
       </c>
       <c r="G19">
-        <v>-0.03138969998877068</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.04931314989199322</v>
+      </c>
+      <c r="H19">
+        <v>-0.07338530474962851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0009244963564114879</v>
+        <v>0.009088447084844561</v>
       </c>
       <c r="C20">
-        <v>0.007672992891343249</v>
+        <v>-0.007008634117451874</v>
       </c>
       <c r="D20">
-        <v>0.003702963042596862</v>
+        <v>-0.008091958682419258</v>
       </c>
       <c r="E20">
-        <v>0.02816183611957698</v>
+        <v>0.003822790410174371</v>
       </c>
       <c r="F20">
-        <v>-0.07599509223071398</v>
+        <v>0.01604752984052195</v>
       </c>
       <c r="G20">
-        <v>-0.07409313867055925</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04396256947632748</v>
+      </c>
+      <c r="H20">
+        <v>-0.02171263374973538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.005046972307466502</v>
+        <v>0.01376636275448866</v>
       </c>
       <c r="C21">
-        <v>-0.01160940807265582</v>
+        <v>-0.009083006085622189</v>
       </c>
       <c r="D21">
-        <v>-0.02033932103753768</v>
+        <v>-0.009381780001793157</v>
       </c>
       <c r="E21">
-        <v>0.01785263283666908</v>
+        <v>0.01755185981356825</v>
       </c>
       <c r="F21">
-        <v>-0.04983730472068572</v>
+        <v>0.006532938854049764</v>
       </c>
       <c r="G21">
-        <v>-0.02692257153489123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04209506115512204</v>
+      </c>
+      <c r="H21">
+        <v>-0.04761895826529945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02987232860810871</v>
+        <v>0.0185414824252065</v>
       </c>
       <c r="C24">
-        <v>0.02433562746224071</v>
+        <v>0.002283688876909545</v>
       </c>
       <c r="D24">
-        <v>0.0003113346344872868</v>
+        <v>-0.03558960865203715</v>
       </c>
       <c r="E24">
-        <v>0.008358016475299329</v>
+        <v>0.0003932920477643207</v>
       </c>
       <c r="F24">
-        <v>-0.04527597697318207</v>
+        <v>0.0129410145457492</v>
       </c>
       <c r="G24">
-        <v>-0.02297306171366698</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01208801808370923</v>
+      </c>
+      <c r="H24">
+        <v>-0.04620154357937926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03023551866855581</v>
+        <v>0.02865858040102348</v>
       </c>
       <c r="C25">
-        <v>0.01571914494493117</v>
+        <v>0.0002146423534503475</v>
       </c>
       <c r="D25">
-        <v>-0.01460972442079127</v>
+        <v>-0.03533757872465462</v>
       </c>
       <c r="E25">
-        <v>0.02884752846134685</v>
+        <v>0.004815036412765128</v>
       </c>
       <c r="F25">
-        <v>-0.0523706204336996</v>
+        <v>0.01974998762365022</v>
       </c>
       <c r="G25">
-        <v>-0.00962927492265753</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01740158748625488</v>
+      </c>
+      <c r="H25">
+        <v>-0.04621762108004657</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02015264600175976</v>
+        <v>0.01860470576250006</v>
       </c>
       <c r="C26">
-        <v>0.01139573379699674</v>
+        <v>-0.01803230378899495</v>
       </c>
       <c r="D26">
-        <v>-0.02916142771249131</v>
+        <v>-0.001826069295415237</v>
       </c>
       <c r="E26">
-        <v>0.0001526347571017444</v>
+        <v>-0.001823160508022274</v>
       </c>
       <c r="F26">
-        <v>-0.07003611744878503</v>
+        <v>0.0004006389452333288</v>
       </c>
       <c r="G26">
-        <v>-0.04968467279158911</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03019297575257948</v>
+      </c>
+      <c r="H26">
+        <v>-0.02128417608683652</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06091116713779854</v>
+        <v>0.02314025889570536</v>
       </c>
       <c r="C27">
-        <v>0.0195914516646411</v>
+        <v>0.008387925867040411</v>
       </c>
       <c r="D27">
-        <v>0.03008405353580723</v>
+        <v>-0.01617138625897965</v>
       </c>
       <c r="E27">
-        <v>0.03912689983200125</v>
+        <v>0.0052104562109644</v>
       </c>
       <c r="F27">
-        <v>-0.06261545097995427</v>
+        <v>0.01683466045573917</v>
       </c>
       <c r="G27">
-        <v>-0.04373326488438212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01662574153096033</v>
+      </c>
+      <c r="H27">
+        <v>-0.004540196273300435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04888570262260794</v>
+        <v>0.1570236573883962</v>
       </c>
       <c r="C28">
-        <v>-0.09096261432270368</v>
+        <v>0.02919520806838418</v>
       </c>
       <c r="D28">
-        <v>0.111689688380065</v>
+        <v>0.2170784343633987</v>
       </c>
       <c r="E28">
-        <v>-0.1497191183079827</v>
+        <v>-0.002069740592963319</v>
       </c>
       <c r="F28">
-        <v>-0.05083491627276773</v>
+        <v>-0.04482103900441953</v>
       </c>
       <c r="G28">
-        <v>-0.02424274443466825</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01134615461927427</v>
+      </c>
+      <c r="H28">
+        <v>0.009188649893831518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02170546843204625</v>
+        <v>0.02108240781803504</v>
       </c>
       <c r="C29">
-        <v>0.002919763426748078</v>
+        <v>0.0005740392011380409</v>
       </c>
       <c r="D29">
-        <v>0.003132113947783416</v>
+        <v>-0.007005686051703076</v>
       </c>
       <c r="E29">
-        <v>0.04708668453158452</v>
+        <v>0.0123636236146298</v>
       </c>
       <c r="F29">
-        <v>-0.05189728120747901</v>
+        <v>0.0173408465649731</v>
       </c>
       <c r="G29">
-        <v>-0.06600300377923733</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03668997944952911</v>
+      </c>
+      <c r="H29">
+        <v>-0.004886078574045493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0887488716640963</v>
+        <v>0.04862699716118878</v>
       </c>
       <c r="C30">
-        <v>0.05569636409949211</v>
+        <v>-0.006803709291770461</v>
       </c>
       <c r="D30">
-        <v>0.003379404638170775</v>
+        <v>-0.07210304327891694</v>
       </c>
       <c r="E30">
-        <v>0.06605429075994032</v>
+        <v>-0.02963700281760768</v>
       </c>
       <c r="F30">
-        <v>-0.100761588905859</v>
+        <v>0.05303203973040075</v>
       </c>
       <c r="G30">
-        <v>-0.05293567070929225</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.04360606832224009</v>
+      </c>
+      <c r="H30">
+        <v>-0.06970230972949969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05856969418044245</v>
+        <v>0.0523422352345151</v>
       </c>
       <c r="C31">
-        <v>0.03338585652844071</v>
+        <v>0.01272336876472178</v>
       </c>
       <c r="D31">
-        <v>-0.01463049677416684</v>
+        <v>-0.02505540249666049</v>
       </c>
       <c r="E31">
-        <v>-0.002259315788273241</v>
+        <v>-0.006062547541945234</v>
       </c>
       <c r="F31">
-        <v>-0.04065217201721648</v>
+        <v>0.01026482221530927</v>
       </c>
       <c r="G31">
-        <v>-0.07942814414429508</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01355487796495248</v>
+      </c>
+      <c r="H31">
+        <v>-0.008453889531026923</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01855838688564411</v>
+        <v>0.01026827800850369</v>
       </c>
       <c r="C32">
-        <v>0.01508795554418088</v>
+        <v>0.01286460238745402</v>
       </c>
       <c r="D32">
-        <v>-0.01905459352117622</v>
+        <v>-0.007501998223603767</v>
       </c>
       <c r="E32">
-        <v>0.07456755052297005</v>
+        <v>0.02992592096618061</v>
       </c>
       <c r="F32">
-        <v>-0.08417596058969362</v>
+        <v>0.04174099438184233</v>
       </c>
       <c r="G32">
-        <v>-0.05937139851892564</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02526930721201074</v>
+      </c>
+      <c r="H32">
+        <v>-0.06263324100080075</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04599943004258242</v>
+        <v>0.03820414149645714</v>
       </c>
       <c r="C33">
-        <v>0.02876750046544965</v>
+        <v>0.0004183956851269078</v>
       </c>
       <c r="D33">
-        <v>-0.0404834433378201</v>
+        <v>-0.03240376949225959</v>
       </c>
       <c r="E33">
-        <v>0.02223001112361161</v>
+        <v>-0.02349146315466692</v>
       </c>
       <c r="F33">
-        <v>-0.08807514493821017</v>
+        <v>0.004843846248065487</v>
       </c>
       <c r="G33">
-        <v>-0.06813621098082431</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.0406213622232494</v>
+      </c>
+      <c r="H33">
+        <v>-0.04451214497871689</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02922436077549892</v>
+        <v>0.02446662670479768</v>
       </c>
       <c r="C34">
-        <v>0.02464709575122061</v>
+        <v>0.0159228177816846</v>
       </c>
       <c r="D34">
-        <v>-0.009013174743349272</v>
+        <v>-0.03664674308285229</v>
       </c>
       <c r="E34">
-        <v>0.02714384588479297</v>
+        <v>0.009129802858750717</v>
       </c>
       <c r="F34">
-        <v>-0.05863954559830985</v>
+        <v>0.02031249253826929</v>
       </c>
       <c r="G34">
-        <v>-0.01336680738265437</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0144295663369512</v>
+      </c>
+      <c r="H34">
+        <v>-0.03930394546689634</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01417186166278848</v>
+        <v>0.01989510289913852</v>
       </c>
       <c r="C36">
-        <v>0.0003813308131495411</v>
+        <v>-0.004641674673850568</v>
       </c>
       <c r="D36">
-        <v>-0.003026798785339944</v>
+        <v>-0.001596352521039718</v>
       </c>
       <c r="E36">
-        <v>0.02580238950297888</v>
+        <v>0.006768040610858413</v>
       </c>
       <c r="F36">
-        <v>-0.03704492494889552</v>
+        <v>0.004859327336173271</v>
       </c>
       <c r="G36">
-        <v>-0.03953751257952067</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01701726397263694</v>
+      </c>
+      <c r="H36">
+        <v>-0.01221394357663498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0005563440741611737</v>
+        <v>0.02324933626096914</v>
       </c>
       <c r="C38">
-        <v>-0.01189721128010872</v>
+        <v>0.01575864203109883</v>
       </c>
       <c r="D38">
-        <v>-0.01865438931003632</v>
+        <v>-0.006900905466151601</v>
       </c>
       <c r="E38">
-        <v>-0.02872842435750744</v>
+        <v>-0.001917932389163353</v>
       </c>
       <c r="F38">
-        <v>-0.03489865931883625</v>
+        <v>0.007945334079665899</v>
       </c>
       <c r="G38">
-        <v>-0.01979516133800766</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01529004825320118</v>
+      </c>
+      <c r="H38">
+        <v>-0.03578181326582469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03632978001137045</v>
+        <v>0.01398582039657803</v>
       </c>
       <c r="C39">
-        <v>0.04584460725543884</v>
+        <v>-0.000841100709498758</v>
       </c>
       <c r="D39">
-        <v>-0.01535117229074894</v>
+        <v>-0.07738897012663555</v>
       </c>
       <c r="E39">
-        <v>0.03049608482745544</v>
+        <v>-0.002468177236272459</v>
       </c>
       <c r="F39">
-        <v>-0.07018218401159439</v>
+        <v>0.02280738576352591</v>
       </c>
       <c r="G39">
-        <v>-0.02648167462670392</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03274536573793927</v>
+      </c>
+      <c r="H39">
+        <v>-0.07347442792315545</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03367238345723988</v>
+        <v>0.02947362296230321</v>
       </c>
       <c r="C40">
-        <v>0.06853791010414695</v>
+        <v>-0.0001438364611549199</v>
       </c>
       <c r="D40">
-        <v>0.002212537956341327</v>
+        <v>-0.02206725086258329</v>
       </c>
       <c r="E40">
-        <v>-0.0108003897815605</v>
+        <v>-0.02462225653676398</v>
       </c>
       <c r="F40">
-        <v>-0.07870430569064114</v>
+        <v>0.03219984410293304</v>
       </c>
       <c r="G40">
-        <v>-0.05321198685743547</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.01662600717114514</v>
+      </c>
+      <c r="H40">
+        <v>-0.06619804476173394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.001257587772047916</v>
+        <v>0.01121099445291471</v>
       </c>
       <c r="C41">
-        <v>-0.0009863740087188272</v>
+        <v>-0.0007417916820520609</v>
       </c>
       <c r="D41">
-        <v>-0.01227895237104417</v>
+        <v>0.01263059747589945</v>
       </c>
       <c r="E41">
-        <v>0.004448276286994402</v>
+        <v>-0.002844521239546162</v>
       </c>
       <c r="F41">
-        <v>-0.01172442697327053</v>
+        <v>-0.003423687638717946</v>
       </c>
       <c r="G41">
-        <v>-0.0607548516399292</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.005638248913835397</v>
+      </c>
+      <c r="H41">
+        <v>0.007851608744268363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3966365832009745</v>
+        <v>0.1908926791433966</v>
       </c>
       <c r="C42">
-        <v>-0.3733681954621277</v>
+        <v>-0.07323813194747227</v>
       </c>
       <c r="D42">
-        <v>-0.7047853675431492</v>
+        <v>-0.335665861300752</v>
       </c>
       <c r="E42">
-        <v>-0.2788941853638229</v>
+        <v>-0.1704159958079803</v>
       </c>
       <c r="F42">
-        <v>0.2682786853420958</v>
+        <v>-0.8836604130069291</v>
       </c>
       <c r="G42">
-        <v>-0.1392759536066638</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.125562759984799</v>
+      </c>
+      <c r="H42">
+        <v>0.04160471695534002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003916227246815627</v>
+        <v>0.01375736841309699</v>
       </c>
       <c r="C43">
-        <v>-0.004188117355179551</v>
+        <v>-0.001030263790274882</v>
       </c>
       <c r="D43">
-        <v>-0.0184629836192681</v>
+        <v>0.01351195724051111</v>
       </c>
       <c r="E43">
-        <v>0.003413185074078194</v>
+        <v>-0.005263550646833085</v>
       </c>
       <c r="F43">
-        <v>-0.02525207367823193</v>
+        <v>-0.008315834603916963</v>
       </c>
       <c r="G43">
-        <v>-0.05878324711423204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.005367758799483177</v>
+      </c>
+      <c r="H43">
+        <v>-0.003645102730487158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01349704723056438</v>
+        <v>0.0144619453099535</v>
       </c>
       <c r="C44">
-        <v>-0.006136435820577482</v>
+        <v>0.001223660897719854</v>
       </c>
       <c r="D44">
-        <v>-0.01579408229720091</v>
+        <v>-0.02347709279561464</v>
       </c>
       <c r="E44">
-        <v>0.00715500393510802</v>
+        <v>0.005964407479484076</v>
       </c>
       <c r="F44">
-        <v>-0.1105555178157308</v>
+        <v>-0.0007611451801713865</v>
       </c>
       <c r="G44">
-        <v>-0.09728194236210287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03237557248914001</v>
+      </c>
+      <c r="H44">
+        <v>-0.06237053136614321</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02092197152913636</v>
+        <v>0.01798869848407646</v>
       </c>
       <c r="C46">
-        <v>0.01569899553924877</v>
+        <v>-0.00445665019028954</v>
       </c>
       <c r="D46">
-        <v>-0.02168684807294042</v>
+        <v>-0.01199005118377132</v>
       </c>
       <c r="E46">
-        <v>0.03810627220264499</v>
+        <v>-2.943142602236695e-06</v>
       </c>
       <c r="F46">
-        <v>-0.06903059051583953</v>
+        <v>0.01590926555400764</v>
       </c>
       <c r="G46">
-        <v>-0.07369381722106989</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04354457689617576</v>
+      </c>
+      <c r="H46">
+        <v>-0.01643516037204216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09471173223397872</v>
+        <v>0.07301368546042644</v>
       </c>
       <c r="C47">
-        <v>0.03519696671893816</v>
+        <v>0.02792825433504538</v>
       </c>
       <c r="D47">
-        <v>0.001520650380860851</v>
+        <v>-0.04752378257207817</v>
       </c>
       <c r="E47">
-        <v>0.0229511233216065</v>
+        <v>-0.0007318647289368263</v>
       </c>
       <c r="F47">
-        <v>-0.02851044443789938</v>
+        <v>0.02155727935384696</v>
       </c>
       <c r="G47">
-        <v>-0.09735652913158939</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01079529725834015</v>
+      </c>
+      <c r="H47">
+        <v>0.02212134578650803</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01509859255406464</v>
+        <v>0.02127479570190275</v>
       </c>
       <c r="C48">
-        <v>0.007671748066848198</v>
+        <v>0.005700781020672469</v>
       </c>
       <c r="D48">
-        <v>-0.01705334152105924</v>
+        <v>-0.006739289035274637</v>
       </c>
       <c r="E48">
-        <v>0.01561714890237101</v>
+        <v>0.000407470610662581</v>
       </c>
       <c r="F48">
-        <v>-0.05263091381137895</v>
+        <v>0.007872210915083905</v>
       </c>
       <c r="G48">
-        <v>-0.03194105858674746</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02310865015733918</v>
+      </c>
+      <c r="H48">
+        <v>-0.02032929678095728</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08367769681874118</v>
+        <v>0.07042683637634385</v>
       </c>
       <c r="C50">
-        <v>0.04307846787387022</v>
+        <v>0.02498272333654181</v>
       </c>
       <c r="D50">
-        <v>-0.01857993304773405</v>
+        <v>-0.04734463011479741</v>
       </c>
       <c r="E50">
-        <v>0.02606177643104907</v>
+        <v>0.0136031838265345</v>
       </c>
       <c r="F50">
-        <v>-0.05123595500981353</v>
+        <v>0.01885114405025255</v>
       </c>
       <c r="G50">
-        <v>-0.05061302781217538</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01051553245085186</v>
+      </c>
+      <c r="H50">
+        <v>-0.0004896034730375433</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01794752763115659</v>
+        <v>0.01797859464342533</v>
       </c>
       <c r="C51">
-        <v>-0.01524358546784804</v>
+        <v>-0.002136491770983588</v>
       </c>
       <c r="D51">
-        <v>-0.0105756257267248</v>
+        <v>0.006453945631573373</v>
       </c>
       <c r="E51">
-        <v>-0.01544286872892991</v>
+        <v>0.004237503782883707</v>
       </c>
       <c r="F51">
-        <v>-0.114130753160993</v>
+        <v>-0.009627204203083451</v>
       </c>
       <c r="G51">
-        <v>-0.064894274725892</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04258716021981841</v>
+      </c>
+      <c r="H51">
+        <v>-0.0577016857143089</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09794423929425425</v>
+        <v>0.0885352998282822</v>
       </c>
       <c r="C53">
-        <v>0.05427675260070007</v>
+        <v>0.0337708651924969</v>
       </c>
       <c r="D53">
-        <v>-0.005148592949095258</v>
+        <v>-0.08349241478108545</v>
       </c>
       <c r="E53">
-        <v>0.04387020968893703</v>
+        <v>0.003095335285755742</v>
       </c>
       <c r="F53">
-        <v>0.040455783870775</v>
+        <v>0.04454284776592216</v>
       </c>
       <c r="G53">
-        <v>-0.03379731596084442</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04620670032501512</v>
+      </c>
+      <c r="H53">
+        <v>0.04674733050308894</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02060012077130401</v>
+        <v>0.02524399503417221</v>
       </c>
       <c r="C54">
-        <v>0.005918134594140431</v>
+        <v>0.01050455177764698</v>
       </c>
       <c r="D54">
-        <v>0.0120057615769847</v>
+        <v>0.01288037846908078</v>
       </c>
       <c r="E54">
-        <v>0.0346595895611599</v>
+        <v>0.006389120182771063</v>
       </c>
       <c r="F54">
-        <v>-0.05210932491447894</v>
+        <v>0.007697889267569128</v>
       </c>
       <c r="G54">
-        <v>-0.08283464601148945</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03663393293702338</v>
+      </c>
+      <c r="H54">
+        <v>0.002356756667469728</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1049328105200731</v>
+        <v>0.07378381647087703</v>
       </c>
       <c r="C55">
-        <v>0.02786195381118451</v>
+        <v>0.02946230293534277</v>
       </c>
       <c r="D55">
-        <v>0.008951096243622794</v>
+        <v>-0.07999870377830662</v>
       </c>
       <c r="E55">
-        <v>0.07164466778574528</v>
+        <v>0.01112527601368761</v>
       </c>
       <c r="F55">
-        <v>0.02575268554791242</v>
+        <v>0.03828027251608097</v>
       </c>
       <c r="G55">
-        <v>-0.07462451146630843</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01999308426399018</v>
+      </c>
+      <c r="H55">
+        <v>0.05345533930520064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1410698891739015</v>
+        <v>0.1214808742635664</v>
       </c>
       <c r="C56">
-        <v>0.07755278573911559</v>
+        <v>0.0519323543597376</v>
       </c>
       <c r="D56">
-        <v>0.03151344595845952</v>
+        <v>-0.1074731283444991</v>
       </c>
       <c r="E56">
-        <v>0.06748210428798497</v>
+        <v>0.003682873658922711</v>
       </c>
       <c r="F56">
-        <v>0.08221827090296963</v>
+        <v>0.06958700776278864</v>
       </c>
       <c r="G56">
-        <v>0.030926262971343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07659970084866795</v>
+      </c>
+      <c r="H56">
+        <v>0.06040974175567204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04624502314042039</v>
+        <v>0.03764912019796184</v>
       </c>
       <c r="C57">
-        <v>0.006623690873577539</v>
+        <v>-0.01136250388580665</v>
       </c>
       <c r="D57">
-        <v>-0.009648756704418546</v>
+        <v>-0.03178242846098444</v>
       </c>
       <c r="E57">
-        <v>-0.02004823253364009</v>
+        <v>-0.005773741287067472</v>
       </c>
       <c r="F57">
-        <v>-0.07226205439194604</v>
+        <v>0.01883266281010873</v>
       </c>
       <c r="G57">
-        <v>-0.0594031585792485</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05173524274292478</v>
+      </c>
+      <c r="H57">
+        <v>-0.04371785641226203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2096766203080867</v>
+        <v>0.1459049457804086</v>
       </c>
       <c r="C58">
-        <v>0.1132047839091962</v>
+        <v>0.04188547303865899</v>
       </c>
       <c r="D58">
-        <v>-0.07076129588631942</v>
+        <v>-0.1567448293438852</v>
       </c>
       <c r="E58">
-        <v>0.08590410148000582</v>
+        <v>-0.1717368174878219</v>
       </c>
       <c r="F58">
-        <v>-0.3755655721612584</v>
+        <v>0.003706408784305126</v>
       </c>
       <c r="G58">
-        <v>-0.1000485642519822</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8642473279701004</v>
+      </c>
+      <c r="H58">
+        <v>0.3065596904772361</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04774837107184799</v>
+        <v>0.1683364524662505</v>
       </c>
       <c r="C59">
-        <v>-0.04337554775486138</v>
+        <v>0.03807955853301313</v>
       </c>
       <c r="D59">
-        <v>0.1136399777078644</v>
+        <v>0.2169512182974136</v>
       </c>
       <c r="E59">
-        <v>-0.1409232159159958</v>
+        <v>-0.02128684800990635</v>
       </c>
       <c r="F59">
-        <v>-0.06251479254730034</v>
+        <v>-0.02456162279130988</v>
       </c>
       <c r="G59">
-        <v>0.008784438166641755</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01488560108126849</v>
+      </c>
+      <c r="H59">
+        <v>-0.02448798505045819</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1568239752969596</v>
+        <v>0.175722404576126</v>
       </c>
       <c r="C60">
-        <v>0.06606103016710016</v>
+        <v>0.03402273739499923</v>
       </c>
       <c r="D60">
-        <v>-0.04240239300589618</v>
+        <v>-0.02532913145679924</v>
       </c>
       <c r="E60">
-        <v>-0.08440185141464901</v>
+        <v>-0.04755611640243566</v>
       </c>
       <c r="F60">
-        <v>-0.1545097634596811</v>
+        <v>0.04055041767343424</v>
       </c>
       <c r="G60">
-        <v>0.3167966346188952</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.01373207678032496</v>
+      </c>
+      <c r="H60">
+        <v>-0.3849485511062087</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01919807961466609</v>
+        <v>0.02027639464725012</v>
       </c>
       <c r="C61">
-        <v>0.01431890267654945</v>
+        <v>0.005617198268636265</v>
       </c>
       <c r="D61">
-        <v>-0.01347004223349438</v>
+        <v>-0.0436705729573754</v>
       </c>
       <c r="E61">
-        <v>0.01569448403605104</v>
+        <v>0.004591273280112127</v>
       </c>
       <c r="F61">
-        <v>-0.0373723941777704</v>
+        <v>0.02147985101665694</v>
       </c>
       <c r="G61">
-        <v>-0.01493552242534296</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01696810591242317</v>
+      </c>
+      <c r="H61">
+        <v>-0.0546621638584761</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01661955606608382</v>
+        <v>0.01256619200470656</v>
       </c>
       <c r="C63">
-        <v>0.006731831425598147</v>
+        <v>-0.002879938315676396</v>
       </c>
       <c r="D63">
-        <v>-0.02038734177959487</v>
+        <v>-0.01816896952696793</v>
       </c>
       <c r="E63">
-        <v>0.03131061927386927</v>
+        <v>0.004670696538229568</v>
       </c>
       <c r="F63">
-        <v>-0.02287227696695037</v>
+        <v>0.01367107013117306</v>
       </c>
       <c r="G63">
-        <v>-0.06976007581919622</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01589982250914531</v>
+      </c>
+      <c r="H63">
+        <v>-0.009285980231327986</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03216410528259817</v>
+        <v>0.03709044869361535</v>
       </c>
       <c r="C64">
-        <v>0.003938131686878937</v>
+        <v>0.007940642317813201</v>
       </c>
       <c r="D64">
-        <v>0.001990316873623304</v>
+        <v>-0.03741252615823078</v>
       </c>
       <c r="E64">
-        <v>0.05995332777053009</v>
+        <v>0.0119337961786578</v>
       </c>
       <c r="F64">
-        <v>-0.02911328576858955</v>
+        <v>0.006038568295575186</v>
       </c>
       <c r="G64">
-        <v>-0.05378896155888913</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.0008990933901366976</v>
+      </c>
+      <c r="H64">
+        <v>-0.03517154225991029</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02265944807920455</v>
+        <v>0.02970796380078262</v>
       </c>
       <c r="C65">
-        <v>0.01321689233175405</v>
+        <v>-0.005142876040641485</v>
       </c>
       <c r="D65">
-        <v>-0.008392707428450549</v>
+        <v>-0.05995309752985363</v>
       </c>
       <c r="E65">
-        <v>0.01944882900856465</v>
+        <v>0.009924892934580478</v>
       </c>
       <c r="F65">
-        <v>-0.02237292772214743</v>
+        <v>0.03642407098688919</v>
       </c>
       <c r="G65">
-        <v>0.007640220334919806</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.004504636212553455</v>
+      </c>
+      <c r="H65">
+        <v>-0.06982087675114577</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03407272239848783</v>
+        <v>0.01999661888696847</v>
       </c>
       <c r="C66">
-        <v>0.05084900764253284</v>
+        <v>0.003742360635843515</v>
       </c>
       <c r="D66">
-        <v>-0.01894979735437358</v>
+        <v>-0.09213093522684161</v>
       </c>
       <c r="E66">
-        <v>0.03145502335822178</v>
+        <v>-0.004052816332530086</v>
       </c>
       <c r="F66">
-        <v>-0.0578290752303709</v>
+        <v>0.04144063299230859</v>
       </c>
       <c r="G66">
-        <v>-0.01208071160333254</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02426406975625944</v>
+      </c>
+      <c r="H66">
+        <v>-0.07641005080618304</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01031462891879705</v>
+        <v>0.04240778322172115</v>
       </c>
       <c r="C67">
-        <v>-0.0006621984327725056</v>
+        <v>0.01864805007700198</v>
       </c>
       <c r="D67">
-        <v>-0.01298325855869712</v>
+        <v>-0.005810416280334434</v>
       </c>
       <c r="E67">
-        <v>-0.04229293919561322</v>
+        <v>-0.006103563459294429</v>
       </c>
       <c r="F67">
-        <v>-0.01948614952288064</v>
+        <v>0.01615649728697831</v>
       </c>
       <c r="G67">
-        <v>-0.003301210049253986</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.0008527033618030465</v>
+      </c>
+      <c r="H67">
+        <v>-0.03282330670945749</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06516968431689386</v>
+        <v>0.1652312193463145</v>
       </c>
       <c r="C68">
-        <v>-0.0712665070687209</v>
+        <v>0.01700839858221275</v>
       </c>
       <c r="D68">
-        <v>0.1379058719118889</v>
+        <v>0.2190963436204771</v>
       </c>
       <c r="E68">
-        <v>-0.1349671544485664</v>
+        <v>-0.01495997379346811</v>
       </c>
       <c r="F68">
-        <v>-0.05737490514768612</v>
+        <v>-0.04994326207174912</v>
       </c>
       <c r="G68">
-        <v>0.04291176340097928</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03015482215301069</v>
+      </c>
+      <c r="H68">
+        <v>0.04069465129313175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07022855212020575</v>
+        <v>0.0583268749854719</v>
       </c>
       <c r="C69">
-        <v>0.04137300975180023</v>
+        <v>0.02733474295315366</v>
       </c>
       <c r="D69">
-        <v>0.008197634299304851</v>
+        <v>-0.0433862933398293</v>
       </c>
       <c r="E69">
-        <v>0.005254197159301015</v>
+        <v>-0.002620630193094331</v>
       </c>
       <c r="F69">
-        <v>-0.02071400668322167</v>
+        <v>0.03112299367712962</v>
       </c>
       <c r="G69">
-        <v>-0.0880264189020746</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01790574009479749</v>
+      </c>
+      <c r="H69">
+        <v>-0.003900902774224466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07260305928755603</v>
+        <v>0.1544232644701793</v>
       </c>
       <c r="C71">
-        <v>-0.08068733602777602</v>
+        <v>0.0244784156560737</v>
       </c>
       <c r="D71">
-        <v>0.1237284756740575</v>
+        <v>0.1914220916126906</v>
       </c>
       <c r="E71">
-        <v>-0.1959560478304941</v>
+        <v>-0.0203310751400734</v>
       </c>
       <c r="F71">
-        <v>-0.05642756836363597</v>
+        <v>-0.05662944834622701</v>
       </c>
       <c r="G71">
-        <v>-0.0154490976173757</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02500853435033558</v>
+      </c>
+      <c r="H71">
+        <v>0.02325583617178737</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1124943666760503</v>
+        <v>0.07797327640921986</v>
       </c>
       <c r="C72">
-        <v>0.07851247810878347</v>
+        <v>0.03628593663664503</v>
       </c>
       <c r="D72">
-        <v>0.03371366130026536</v>
+        <v>-0.08271450566424647</v>
       </c>
       <c r="E72">
-        <v>0.0163348405638881</v>
+        <v>-0.01230614924096524</v>
       </c>
       <c r="F72">
-        <v>-0.13186497344369</v>
+        <v>0.08102682416662681</v>
       </c>
       <c r="G72">
-        <v>0.09235254408312822</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03953512087493206</v>
+      </c>
+      <c r="H72">
+        <v>-0.1684966980019505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2353438494726602</v>
+        <v>0.2363353202463401</v>
       </c>
       <c r="C73">
-        <v>0.07683235852525862</v>
+        <v>0.04288460424180866</v>
       </c>
       <c r="D73">
-        <v>-0.0339995764714751</v>
+        <v>-0.08147577669254769</v>
       </c>
       <c r="E73">
-        <v>-0.1931065282846146</v>
+        <v>-0.08062584137301282</v>
       </c>
       <c r="F73">
-        <v>-0.2482045279573144</v>
+        <v>0.04358816715334048</v>
       </c>
       <c r="G73">
-        <v>0.4664845236346545</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.01982048024063228</v>
+      </c>
+      <c r="H73">
+        <v>-0.5154422242359071</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1420642214370681</v>
+        <v>0.1145518891038183</v>
       </c>
       <c r="C74">
-        <v>0.02981566792199558</v>
+        <v>0.04884391982169196</v>
       </c>
       <c r="D74">
-        <v>0.01804126434636302</v>
+        <v>-0.1114205483938758</v>
       </c>
       <c r="E74">
-        <v>0.03664977012206347</v>
+        <v>0.004288364835805639</v>
       </c>
       <c r="F74">
-        <v>0.05901852920066</v>
+        <v>0.0527220735543924</v>
       </c>
       <c r="G74">
-        <v>0.009740537665544571</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.06129079524992655</v>
+      </c>
+      <c r="H74">
+        <v>0.03601453715065476</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2328005534517497</v>
+        <v>0.2208629085368499</v>
       </c>
       <c r="C75">
-        <v>0.127435885204085</v>
+        <v>0.09595182779120774</v>
       </c>
       <c r="D75">
-        <v>0.06881942683299008</v>
+        <v>-0.1792510578895405</v>
       </c>
       <c r="E75">
-        <v>0.09272247250230929</v>
+        <v>-0.01233964797984814</v>
       </c>
       <c r="F75">
-        <v>0.1029101098891534</v>
+        <v>0.1318874298925475</v>
       </c>
       <c r="G75">
-        <v>-0.004862180613117052</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1236500339314791</v>
+      </c>
+      <c r="H75">
+        <v>0.1350568709986843</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2750631955540402</v>
+        <v>0.1950507406203024</v>
       </c>
       <c r="C76">
-        <v>0.1017652328687789</v>
+        <v>0.08889848106993599</v>
       </c>
       <c r="D76">
-        <v>0.1196615918445094</v>
+        <v>-0.1683224212001693</v>
       </c>
       <c r="E76">
-        <v>0.1382253788295099</v>
+        <v>0.03691514172821476</v>
       </c>
       <c r="F76">
-        <v>0.1505827612652417</v>
+        <v>0.125893960595464</v>
       </c>
       <c r="G76">
-        <v>0.008530394494669469</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1229780359252334</v>
+      </c>
+      <c r="H76">
+        <v>0.1349533164541669</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1361547705343437</v>
+        <v>0.06853966296232304</v>
       </c>
       <c r="C77">
-        <v>0.01427981748972884</v>
+        <v>0.008596108464416949</v>
       </c>
       <c r="D77">
-        <v>-0.06138725402177331</v>
+        <v>-0.06389889971298612</v>
       </c>
       <c r="E77">
-        <v>0.04690588512168994</v>
+        <v>-0.007177747980099839</v>
       </c>
       <c r="F77">
-        <v>-0.1835946638208323</v>
+        <v>-0.009743366071013034</v>
       </c>
       <c r="G77">
-        <v>-0.1638220725104461</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.0857331013197921</v>
+      </c>
+      <c r="H77">
+        <v>-0.01321849817441145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07428667217185467</v>
+        <v>0.03898370914880735</v>
       </c>
       <c r="C78">
-        <v>0.03609211394416816</v>
+        <v>0.009441173962403536</v>
       </c>
       <c r="D78">
-        <v>-0.03747511057471729</v>
+        <v>-0.05340076607980113</v>
       </c>
       <c r="E78">
-        <v>0.0744434182709382</v>
+        <v>0.006548830964507257</v>
       </c>
       <c r="F78">
-        <v>-0.1074280980328088</v>
+        <v>0.02692627784440368</v>
       </c>
       <c r="G78">
-        <v>-0.02565468319440192</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05392039557060234</v>
+      </c>
+      <c r="H78">
+        <v>-0.07781655061271507</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1411180267020476</v>
+        <v>0.133973769272012</v>
       </c>
       <c r="C80">
-        <v>-0.7704631354718169</v>
+        <v>0.0330255067778264</v>
       </c>
       <c r="D80">
-        <v>0.1900653936867647</v>
+        <v>-0.05174880489589272</v>
       </c>
       <c r="E80">
-        <v>0.5350241888185499</v>
+        <v>0.9531308593923135</v>
       </c>
       <c r="F80">
-        <v>-0.1071031688098659</v>
+        <v>-0.1669528038752336</v>
       </c>
       <c r="G80">
-        <v>0.1573341203677343</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1403437729000686</v>
+      </c>
+      <c r="H80">
+        <v>-0.01747090729047075</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1712558244184777</v>
+        <v>0.1447210374869262</v>
       </c>
       <c r="C81">
-        <v>0.09007701334308681</v>
+        <v>0.06190627092393389</v>
       </c>
       <c r="D81">
-        <v>0.07892373886926284</v>
+        <v>-0.1074828379008989</v>
       </c>
       <c r="E81">
-        <v>0.07916893919601373</v>
+        <v>0.009907260559969502</v>
       </c>
       <c r="F81">
-        <v>0.1177877397551794</v>
+        <v>0.08309714537682567</v>
       </c>
       <c r="G81">
-        <v>0.02599205872769454</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.08212285751111736</v>
+      </c>
+      <c r="H81">
+        <v>0.09376946340198591</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03998589678300621</v>
+        <v>0.03091791880614515</v>
       </c>
       <c r="C83">
-        <v>0.02025712454507661</v>
+        <v>0.004971773799258973</v>
       </c>
       <c r="D83">
-        <v>-0.03438407904785146</v>
+        <v>-0.02103656111987721</v>
       </c>
       <c r="E83">
-        <v>0.008830725863554805</v>
+        <v>-0.006018770705013632</v>
       </c>
       <c r="F83">
-        <v>-0.03816710970560055</v>
+        <v>0.007998371452143936</v>
       </c>
       <c r="G83">
-        <v>-0.04639813380259343</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03460600946073146</v>
+      </c>
+      <c r="H83">
+        <v>-0.03948136215650955</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2525057198939544</v>
+        <v>0.2112484052183848</v>
       </c>
       <c r="C85">
-        <v>0.1042187063681439</v>
+        <v>0.07989369797681826</v>
       </c>
       <c r="D85">
-        <v>0.08146968540669876</v>
+        <v>-0.1786632389595063</v>
       </c>
       <c r="E85">
-        <v>0.1032365407775091</v>
+        <v>-0.003820510485477984</v>
       </c>
       <c r="F85">
-        <v>0.09487576335105646</v>
+        <v>0.1171106462042251</v>
       </c>
       <c r="G85">
-        <v>-0.03740962094556893</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1395927006619377</v>
+      </c>
+      <c r="H85">
+        <v>0.09820498813623967</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.007197321121417974</v>
+        <v>0.02102544490109325</v>
       </c>
       <c r="C86">
-        <v>-0.00133378673534303</v>
+        <v>-0.0007497730723042379</v>
       </c>
       <c r="D86">
-        <v>-0.03120396678871778</v>
+        <v>-0.008538848557772195</v>
       </c>
       <c r="E86">
-        <v>0.04173553345143281</v>
+        <v>-0.007852838263432966</v>
       </c>
       <c r="F86">
-        <v>-0.07336509169375625</v>
+        <v>-0.014522262841559</v>
       </c>
       <c r="G86">
-        <v>-0.02932320086458802</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.05717587986366918</v>
+      </c>
+      <c r="H86">
+        <v>-0.08385561634746326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03997292997760178</v>
+        <v>0.02620148536339376</v>
       </c>
       <c r="C87">
-        <v>-0.01038426573911718</v>
+        <v>0.001144816128976897</v>
       </c>
       <c r="D87">
-        <v>-0.01290596620575034</v>
+        <v>-0.03525294635183734</v>
       </c>
       <c r="E87">
-        <v>0.0227192629826561</v>
+        <v>0.008961668264473106</v>
       </c>
       <c r="F87">
-        <v>-0.1209037367753834</v>
+        <v>0.01121713558342547</v>
       </c>
       <c r="G87">
-        <v>-0.03240701066975214</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07206581201503681</v>
+      </c>
+      <c r="H87">
+        <v>-0.08343916342138698</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.005771141540178656</v>
+        <v>0.03359225968890999</v>
       </c>
       <c r="C88">
-        <v>0.001720061260981286</v>
+        <v>-0.01262884582891565</v>
       </c>
       <c r="D88">
-        <v>0.0088668128435739</v>
+        <v>-0.006408716631490814</v>
       </c>
       <c r="E88">
-        <v>0.006816355364346135</v>
+        <v>0.00763631899037026</v>
       </c>
       <c r="F88">
-        <v>0.003483810489125523</v>
+        <v>0.00830105525713328</v>
       </c>
       <c r="G88">
-        <v>-0.0529794654561248</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.008517201152711375</v>
+      </c>
+      <c r="H88">
+        <v>-0.01231093992830159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09100434237743389</v>
+        <v>0.2655187363648507</v>
       </c>
       <c r="C89">
-        <v>-0.1020875885433569</v>
+        <v>0.0398866276170025</v>
       </c>
       <c r="D89">
-        <v>0.1797148695830448</v>
+        <v>0.3414416404776749</v>
       </c>
       <c r="E89">
-        <v>-0.2486973898738571</v>
+        <v>-0.03218203640811328</v>
       </c>
       <c r="F89">
-        <v>-0.09708545892389939</v>
+        <v>-0.05194406336366246</v>
       </c>
       <c r="G89">
-        <v>-0.03772534599870406</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02182786038089183</v>
+      </c>
+      <c r="H89">
+        <v>0.005470787083725118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08160062358479774</v>
+        <v>0.2154472120464086</v>
       </c>
       <c r="C90">
-        <v>-0.1502183532559898</v>
+        <v>0.03294522472143397</v>
       </c>
       <c r="D90">
-        <v>0.2184505286274188</v>
+        <v>0.3053322952050651</v>
       </c>
       <c r="E90">
-        <v>-0.2444315497076494</v>
+        <v>-0.02431722644680696</v>
       </c>
       <c r="F90">
-        <v>-0.04914368950840373</v>
+        <v>-0.07526725393613511</v>
       </c>
       <c r="G90">
-        <v>-0.04969922769506539</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02402016112382612</v>
+      </c>
+      <c r="H90">
+        <v>0.06502947559075462</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.313080150179337</v>
+        <v>0.2263265419388908</v>
       </c>
       <c r="C91">
-        <v>0.1305615032474645</v>
+        <v>0.09609189932329544</v>
       </c>
       <c r="D91">
-        <v>0.08228107504510339</v>
+        <v>-0.1680638997463402</v>
       </c>
       <c r="E91">
-        <v>0.09685959954113789</v>
+        <v>-0.007103658650663982</v>
       </c>
       <c r="F91">
-        <v>0.2136066351904069</v>
+        <v>0.1208174706831039</v>
       </c>
       <c r="G91">
-        <v>0.02882768642847554</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1474605729026996</v>
+      </c>
+      <c r="H91">
+        <v>0.1759483422512167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1678378130707297</v>
+        <v>0.2600837956694538</v>
       </c>
       <c r="C92">
-        <v>-0.1051763222373225</v>
+        <v>0.09580716955588109</v>
       </c>
       <c r="D92">
-        <v>0.3829303359281953</v>
+        <v>0.2255434696652726</v>
       </c>
       <c r="E92">
-        <v>-0.2411185245818357</v>
+        <v>-0.009988566687427872</v>
       </c>
       <c r="F92">
-        <v>0.1263923003223514</v>
+        <v>0.001781297302263279</v>
       </c>
       <c r="G92">
-        <v>-0.4352807234088305</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.007538132468934731</v>
+      </c>
+      <c r="H92">
+        <v>0.1500431287224033</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0878660308030068</v>
+        <v>0.2374158278735243</v>
       </c>
       <c r="C93">
-        <v>-0.1593275310127091</v>
+        <v>0.04416734867251959</v>
       </c>
       <c r="D93">
-        <v>0.2573351800465776</v>
+        <v>0.3209210838487346</v>
       </c>
       <c r="E93">
-        <v>-0.3529892540444486</v>
+        <v>-0.04582995661288713</v>
       </c>
       <c r="F93">
-        <v>0.0005274343892177752</v>
+        <v>-0.08237546776541739</v>
       </c>
       <c r="G93">
-        <v>0.04020382633658209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.02166698006181748</v>
+      </c>
+      <c r="H93">
+        <v>0.01215582373746221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3014954305623532</v>
+        <v>0.2516152347803879</v>
       </c>
       <c r="C94">
-        <v>0.1743590304001871</v>
+        <v>0.08689873184716446</v>
       </c>
       <c r="D94">
-        <v>0.1617542826846562</v>
+        <v>-0.1648309071559325</v>
       </c>
       <c r="E94">
-        <v>0.1324032910831919</v>
+        <v>-0.01997473304612172</v>
       </c>
       <c r="F94">
-        <v>0.2019223943578903</v>
+        <v>0.1701767164837481</v>
       </c>
       <c r="G94">
-        <v>0.06341928905951331</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1328305123058908</v>
+      </c>
+      <c r="H94">
+        <v>0.2105147066679347</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06827492142666497</v>
+        <v>0.05063708082593125</v>
       </c>
       <c r="C95">
-        <v>0.06186122249445866</v>
+        <v>0.02744714257521298</v>
       </c>
       <c r="D95">
-        <v>-0.08483845601282032</v>
+        <v>-0.08823083419701051</v>
       </c>
       <c r="E95">
-        <v>0.05195244308169454</v>
+        <v>-0.08104457645668151</v>
       </c>
       <c r="F95">
-        <v>-0.01443551557229075</v>
+        <v>0.002963784603054981</v>
       </c>
       <c r="G95">
-        <v>-0.1869953704623728</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.02640140515453434</v>
+      </c>
+      <c r="H95">
+        <v>-0.04872852684307766</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1780068814981621</v>
+        <v>0.1816095226283172</v>
       </c>
       <c r="C98">
-        <v>0.01495495606191223</v>
+        <v>0.06553330460431972</v>
       </c>
       <c r="D98">
-        <v>-0.03303560434612683</v>
+        <v>-0.05161729925349652</v>
       </c>
       <c r="E98">
-        <v>-0.1137157452177937</v>
+        <v>-0.04366068345521019</v>
       </c>
       <c r="F98">
-        <v>-0.1332203926545519</v>
+        <v>0.01333150192674157</v>
       </c>
       <c r="G98">
-        <v>0.3778833837125144</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.05756658633083113</v>
+      </c>
+      <c r="H98">
+        <v>-0.3776747378567976</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.006650619495039297</v>
+        <v>0.01453932147312986</v>
       </c>
       <c r="C101">
-        <v>0.02203105432934869</v>
+        <v>-0.001331163253509333</v>
       </c>
       <c r="D101">
-        <v>-0.01887299809423508</v>
+        <v>-0.007625156918998979</v>
       </c>
       <c r="E101">
-        <v>0.08209123656249821</v>
+        <v>0.003606684426165198</v>
       </c>
       <c r="F101">
-        <v>-0.1640211836210864</v>
+        <v>0.02196673501030949</v>
       </c>
       <c r="G101">
-        <v>-0.1861570285487148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1051389965539042</v>
+      </c>
+      <c r="H101">
+        <v>0.0162215678624121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1110409392727058</v>
+        <v>0.10190271160752</v>
       </c>
       <c r="C102">
-        <v>0.05978185390243385</v>
+        <v>0.03114196231424316</v>
       </c>
       <c r="D102">
-        <v>0.01883205719352313</v>
+        <v>-0.08667171617538046</v>
       </c>
       <c r="E102">
-        <v>0.06627078862520203</v>
+        <v>0.00247620426849232</v>
       </c>
       <c r="F102">
-        <v>0.1010156840809594</v>
+        <v>0.06062400483418194</v>
       </c>
       <c r="G102">
-        <v>-0.003634752055971554</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.0775859276706822</v>
+      </c>
+      <c r="H102">
+        <v>0.07177950638367572</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02654025701110713</v>
+        <v>0.0177927363612085</v>
       </c>
       <c r="C103">
-        <v>0.01798687386590484</v>
+        <v>0.00640625629765931</v>
       </c>
       <c r="D103">
-        <v>0.006422348575619006</v>
+        <v>-0.01796574750685113</v>
       </c>
       <c r="E103">
-        <v>0.02169425813469904</v>
+        <v>0.01074543347580336</v>
       </c>
       <c r="F103">
-        <v>-0.003219872965489174</v>
+        <v>0.01309115072867971</v>
       </c>
       <c r="G103">
-        <v>-0.01072552573419996</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.001124693660921742</v>
+      </c>
+      <c r="H103">
+        <v>0.008096376252009123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.250602713181412</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9522269565937335</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.01896200568495497</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02213614010524003</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1369434825668357</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.01881841933355947</v>
+      </c>
+      <c r="H104">
+        <v>0.04442716779367232</v>
       </c>
     </row>
   </sheetData>
